--- a/biology/Zoologie/Faune_de_la_Colombie/Faune_de_la_Colombie.xlsx
+++ b/biology/Zoologie/Faune_de_la_Colombie/Faune_de_la_Colombie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Colombie a le plus grand nombre d'espèces par unité de surface sur la planète[1]. La faune colombienne est très diversifiée du fait de la variété de ses milieux géographiques (façade Pacifique, mer des Caraïbes, cordillère des Andes, forêt amazonienne) et de l'interconnexion avec l'Amérique du Nord.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Colombie a le plus grand nombre d'espèces par unité de surface sur la planète. La faune colombienne est très diversifiée du fait de la variété de ses milieux géographiques (façade Pacifique, mer des Caraïbes, cordillère des Andes, forêt amazonienne) et de l'interconnexion avec l'Amérique du Nord.
 Elle possède notamment l'une des communautés d'amphibiens les plus diverses dans le monde avec 754 espèces différentes.
-Récemment, c'est au cœur des montagnes de Tacarcuna, au Nord-Ouest de la Colombie, qu'une équipe de scientifiques à découvert 10 nouvelles espèces d'amphibiens, parmi lesquels on compte 9 espèces de grenouilles dont 3 espèces de grenouilles dite «verre» (Centrolenidae) à la peau quasiment transparente, un type de grenouille arlequin (Atelopus), deux types de grenouilles tropicales et une salamandre (Urodela)[2].
+Récemment, c'est au cœur des montagnes de Tacarcuna, au Nord-Ouest de la Colombie, qu'une équipe de scientifiques à découvert 10 nouvelles espèces d'amphibiens, parmi lesquels on compte 9 espèces de grenouilles dont 3 espèces de grenouilles dite «verre» (Centrolenidae) à la peau quasiment transparente, un type de grenouille arlequin (Atelopus), deux types de grenouilles tropicales et une salamandre (Urodela).
 La découverte de ces animaux et amphibiens est selon les scientifiques, une chose des plus encourageantes, malgré la menace sérieuse d'extinction à laquelle font face l'ensemble de ces animaux dans de nombreuses autres régions de la Colombie et du reste du monde.
-Il y a au moins 1 395 espèces d'oiseaux[3], du géant condor des Andes au minuscule colibri (Colibri coruscans, Colibri de Delphine).
-Selon une étude du "World Wide Fund for Nature" (WWF), la moitié des écosystèmes colombiens étudiés sont dans un état critique de détérioration ou menacés. La déforestation massive, et les exploitations non-réglementées de mines et de pétrole en seraient les causes essentielles. La détérioration des écosystèmes menace l'existence de plus d'un tiers des plantes de Colombie et de 50 % de ses animaux[4].
+Il y a au moins 1 395 espèces d'oiseaux, du géant condor des Andes au minuscule colibri (Colibri coruscans, Colibri de Delphine).
+Selon une étude du "World Wide Fund for Nature" (WWF), la moitié des écosystèmes colombiens étudiés sont dans un état critique de détérioration ou menacés. La déforestation massive, et les exploitations non-réglementées de mines et de pétrole en seraient les causes essentielles. La détérioration des écosystèmes menace l'existence de plus d'un tiers des plantes de Colombie et de 50 % de ses animaux.
 </t>
         </is>
       </c>
@@ -518,62 +530,276 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Invertébrés
-Poissons
-Amphibiens
-Grenouilles dite «verre» (Centrolenidae);
+          <t>Amphibiens</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Grenouilles dite «verre» (Centrolenidae);
 grenouille arlequin Atelopus;
-salamandre (Urodela).
-Reptiles
-des caïmans : caïman à lunettes, caïman noir, caïman nain de Cuvier.
-Oiseaux
-La Colombie possède l'avifaune la plus riche de la planète avec 1 867 espèces d'oiseaux, dont 74 sont endémiques[5].
-Mammifères terrestres
-le tapir;
+salamandre (Urodela).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Faune_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples remarquables</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>des caïmans : caïman à lunettes, caïman noir, caïman nain de Cuvier.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Faune_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exemples remarquables</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Colombie possède l'avifaune la plus riche de la planète avec 1 867 espèces d'oiseaux, dont 74 sont endémiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Faune_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Exemples remarquables</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mammifères terrestres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>le tapir;
 le puma;
 les ours;
 les singes;
 le porc sauvage;
-les belettes.
-Mammifères d'eau douce
-des dauphins d'eau douce, les dauphins roses ou botos.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+les belettes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Faune_de_la_Colombie</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Faune_de_la_Colombie</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Exemples remarquables</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mammifères d'eau douce</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>des dauphins d'eau douce, les dauphins roses ou botos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faune_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Espèces éteintes ou menacées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En mai 2009, la Liste rouge de l'UICN [6] repérait en Colombie 3 espèces éteintes et 213 espèces menacées, en particulier un très grand nombre d'amphibiens.
-Espèces éteintes (3)
-Monachus tropicalis (phoque moine des Caraïbes);
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mai 2009, la Liste rouge de l'UICN  repérait en Colombie 3 espèces éteintes et 213 espèces menacées, en particulier un très grand nombre d'amphibiens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faune_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces éteintes ou menacées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèces éteintes (3)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Monachus tropicalis (phoque moine des Caraïbes);
 Podiceps andinus (grèbe colombien ou des Andes);
-Rhizosomichthys totae (poisson silure endémique du lac Tota).
-Espèces menacées (213)
-Statut critique (80)
-genre Acropora (cnidaires)
+Rhizosomichthys totae (poisson silure endémique du lac Tota).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faune_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_de_la_Colombie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces éteintes ou menacées</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Espèces menacées (213)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Statut critique (80)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>genre Acropora (cnidaires)
 Acropora cervicornis (Staghorn Coral)
 Acropora palmata (Elkhorn Coral)
 Allobates juanii
@@ -656,36 +882,37 @@
 Rhinella rostrata
 Saguinus oedipus (Cotton-headed Tamarin)
 Strengeriana antioquensis
-Thryothorus nicefori (Niceforo's Wren)
-Statut menacée (133)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Thryothorus nicefori (Niceforo's Wren)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Faune_de_la_Colombie</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Faune_de_la_Colombie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Pour approfondir</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
